--- a/Project Outputs for ESE516_ExampleLayoutProject_/ESE516_ExampleLayoutProject_.xlsx
+++ b/Project Outputs for ESE516_ExampleLayoutProject_/ESE516_ExampleLayoutProject_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium\project\Dimon_say\ESE516_Starter_PCB\Project Outputs for ESE516_ExampleLayoutProject_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB85E35-3231-4A13-B9C9-E93D35C26E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35E4218-4EEE-4BE4-BC45-3A85A33885B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -894,9 +894,6 @@
     <t>Jumper 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>R4, R26, R39, R40, R52, R54, R55, R56</t>
-  </si>
-  <si>
     <t>RMCF0603ZT0R00</t>
   </si>
   <si>
@@ -1175,6 +1172,9 @@
   </si>
   <si>
     <t>CKN10502CT-ND</t>
+  </si>
+  <si>
+    <t>R4, R26, R39, R54, R56</t>
   </si>
 </sst>
 </file>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1653,31 +1653,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="15">
         <f>SUM(L4:L68)</f>
@@ -1722,7 +1722,7 @@
         <v>12</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1796,7 +1796,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K7" s="4">
         <v>0.26</v>
@@ -2062,7 +2062,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K14" s="4">
         <v>0.45</v>
@@ -2091,7 +2091,7 @@
         <v>66</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>18</v>
@@ -2231,7 +2231,7 @@
         <v>83</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>84</v>
@@ -2291,7 +2291,7 @@
         <v>249</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K20" s="4">
         <v>2.88</v>
@@ -2419,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>1</v>
@@ -2457,10 +2457,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>1</v>
@@ -2495,10 +2495,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
@@ -2595,7 +2595,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K28" s="4">
         <v>1.7000000000000001E-2</v>
@@ -2612,7 +2612,7 @@
         <v>125</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>126</v>
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>128</v>
@@ -2647,10 +2647,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>130</v>
@@ -2785,7 +2785,7 @@
         <v>19</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K33" s="4">
         <v>1.7000000000000001E-2</v>
@@ -2916,7 +2916,7 @@
         <v>161</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>162</v>
@@ -3030,7 +3030,7 @@
         <v>175</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>176</v>
@@ -3127,7 +3127,7 @@
         <v>19</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K42" s="4">
         <v>1.7000000000000001E-2</v>
@@ -3338,7 +3338,7 @@
         <v>213</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
@@ -3385,7 +3385,7 @@
         <v>220</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
@@ -3508,7 +3508,7 @@
         <v>19</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K52" s="4">
         <v>1.7000000000000001E-2</v>
@@ -3546,7 +3546,7 @@
         <v>19</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K53" s="4">
         <v>2.12</v>
@@ -3786,16 +3786,16 @@
         <v>284</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="E60" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>18</v>
@@ -3804,7 +3804,7 @@
         <v>19</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K60" s="4">
         <v>1.2999999999999999E-2</v>
@@ -3815,16 +3815,16 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -3833,7 +3833,7 @@
         <v>36</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
@@ -3842,7 +3842,7 @@
         <v>19</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K61" s="4">
         <v>1.7000000000000001E-2</v>
@@ -3853,34 +3853,34 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="E62" s="4">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="K62" s="4">
         <v>0.61</v>
@@ -3891,25 +3891,25 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="E63" s="4">
         <v>3</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>18</v>
@@ -3918,7 +3918,7 @@
         <v>19</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K63" s="4">
         <v>0.3</v>
@@ -3929,34 +3929,34 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="E64" s="4">
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G64" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="K64" s="4">
         <v>0.24</v>
@@ -3967,25 +3967,25 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="G65" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>25</v>
@@ -3994,7 +3994,7 @@
         <v>19</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K65" s="4">
         <v>0.52</v>
@@ -4005,34 +4005,34 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="E66" s="4">
         <v>5</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>370</v>
       </c>
       <c r="K66" s="4">
         <v>0.34</v>
@@ -4044,16 +4044,16 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="E67" s="4">
         <v>1</v>
@@ -4062,50 +4062,50 @@
         <v>131</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="K68" s="4">
         <v>1.02</v>

--- a/Project Outputs for ESE516_ExampleLayoutProject_/ESE516_ExampleLayoutProject_.xlsx
+++ b/Project Outputs for ESE516_ExampleLayoutProject_/ESE516_ExampleLayoutProject_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium\project\Dimon_say\ESE516_Starter_PCB\Project Outputs for ESE516_ExampleLayoutProject_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35E4218-4EEE-4BE4-BC45-3A85A33885B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D048E-5E05-4FBB-A5FD-72BA6048688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="374">
   <si>
     <t>Line #</t>
   </si>
@@ -1006,9 +1006,6 @@
   </si>
   <si>
     <t>ATSAMW25H18-MR510PB</t>
-  </si>
-  <si>
-    <t>ATSAMW25H18-MR510PB-ND</t>
   </si>
   <si>
     <t>39</t>
@@ -1164,17 +1161,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Digi-Key</t>
+    <t>PTS810SJM250SMTRLFS</t>
+  </si>
+  <si>
+    <t>CKN10502CT-ND</t>
+  </si>
+  <si>
+    <t>R4, R26, R39, R54, R56</t>
+  </si>
+  <si>
+    <t>Notes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PTS810SJM250SMTRLFS</t>
-  </si>
-  <si>
-    <t>CKN10502CT-ND</t>
-  </si>
-  <si>
-    <t>R4, R26, R39, R54, R56</t>
+    <t>From Mouser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT234XD-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Will be provided</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out of board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1296,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
@@ -1315,6 +1328,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1629,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1645,46 +1659,46 @@
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.53125" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="15.265625" customWidth="1"/>
-    <col min="10" max="10" width="26.1328125" customWidth="1"/>
-    <col min="11" max="11" width="23.73046875" customWidth="1"/>
-    <col min="12" max="12" width="22.9296875" customWidth="1"/>
+    <col min="9" max="10" width="15.265625" customWidth="1"/>
+    <col min="11" max="11" width="26.1328125" customWidth="1"/>
+    <col min="12" max="12" width="23.73046875" customWidth="1"/>
+    <col min="13" max="13" width="22.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>366</v>
-      </c>
       <c r="B4" s="15">
-        <f>SUM(L4:L68)</f>
+        <f>SUM(M4:M68)</f>
         <v>89.29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1712,20 +1726,23 @@
       <c r="I5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -1753,21 +1770,22 @@
       <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.1</v>
       </c>
       <c r="L6" s="4">
         <v>0.1</v>
       </c>
-      <c r="M6">
-        <f>SUM(L6:L68)</f>
+      <c r="M6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
+        <f>SUM(M6:M68)</f>
         <v>89.29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1795,17 +1813,18 @@
       <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.26</v>
+      <c r="J7" s="3"/>
+      <c r="K7" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="L7" s="4">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M7" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1833,17 +1852,18 @@
       <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" s="4">
-        <v>2.64</v>
       </c>
       <c r="L8" s="4">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M8" s="4">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1871,17 +1891,18 @@
       <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>0.1</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1909,17 +1930,18 @@
       <c r="I10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="K10" s="4">
-        <v>2.77</v>
       </c>
       <c r="L10" s="4">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M10" s="4">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1947,17 +1969,18 @@
       <c r="I11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>0.1</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -1985,17 +2008,18 @@
       <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.63</v>
       </c>
       <c r="L12" s="4">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M12" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -2023,17 +2047,18 @@
       <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>0.64</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>1.28</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -2061,17 +2086,18 @@
       <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.45</v>
+      <c r="J14" s="3"/>
+      <c r="K14" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="L14" s="4">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M14" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -2091,7 +2117,7 @@
         <v>66</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>18</v>
@@ -2099,17 +2125,18 @@
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.56999999999999995</v>
       </c>
       <c r="L15" s="4">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M15" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -2137,17 +2164,18 @@
       <c r="I16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.1</v>
       </c>
       <c r="L16" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M16" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -2175,17 +2203,18 @@
       <c r="I17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.1</v>
       </c>
       <c r="L17" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M17" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -2213,17 +2242,18 @@
       <c r="I18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>0.1</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>1</v>
       </c>
@@ -2231,7 +2261,7 @@
         <v>83</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>84</v>
@@ -2251,18 +2281,19 @@
       <c r="I19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="12">
+      <c r="L19" s="12">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L19" s="12">
+      <c r="M19" s="12">
         <v>0.17</v>
       </c>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -2290,17 +2321,20 @@
       <c r="I20" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="K20" s="4">
-        <v>2.88</v>
+      <c r="J20" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="L20" s="4">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M20" s="4">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -2328,17 +2362,18 @@
       <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
@@ -2366,17 +2401,18 @@
       <c r="I22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
@@ -2404,25 +2440,26 @@
       <c r="I23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>1</v>
@@ -2442,25 +2479,28 @@
       <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5.95</v>
       </c>
       <c r="L24" s="4">
         <v>5.95</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M24" s="4">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>1</v>
@@ -2480,25 +2520,28 @@
       <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="K25" s="4">
-        <v>12.5</v>
       </c>
       <c r="L25" s="4">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M25" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
@@ -2518,17 +2561,20 @@
       <c r="I26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="K26" s="4">
-        <v>16.95</v>
       </c>
       <c r="L26" s="4">
         <v>16.95</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M26" s="4">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
@@ -2556,17 +2602,18 @@
       <c r="I27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0.1</v>
       </c>
       <c r="L27" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M27" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -2594,17 +2641,18 @@
       <c r="I28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="L28" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
@@ -2612,7 +2660,7 @@
         <v>125</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>126</v>
@@ -2630,27 +2678,28 @@
         <v>109</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="K29" s="4">
-        <v>2.5</v>
       </c>
       <c r="L29" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M29" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>130</v>
@@ -2670,17 +2719,18 @@
       <c r="I30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="K30" s="4">
-        <v>3.47</v>
       </c>
       <c r="L30" s="4">
         <v>3.47</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M30" s="4">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
@@ -2708,17 +2758,18 @@
       <c r="I31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1.4</v>
       </c>
       <c r="L31" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M31" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
@@ -2746,17 +2797,18 @@
       <c r="I32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1.4</v>
       </c>
       <c r="L32" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M32" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>1</v>
       </c>
@@ -2784,17 +2836,18 @@
       <c r="I33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K33" s="4">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L33" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>1</v>
       </c>
@@ -2822,17 +2875,18 @@
       <c r="I34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="K34" s="4">
-        <v>3.58</v>
       </c>
       <c r="L34" s="4">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M34" s="4">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
@@ -2860,17 +2914,18 @@
       <c r="I35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0.75</v>
       </c>
       <c r="L35" s="4">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M35" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -2898,17 +2953,18 @@
       <c r="I36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="K36" s="4">
-        <v>1.48</v>
       </c>
       <c r="L36" s="4">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36" s="4">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2972,7 @@
         <v>161</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>162</v>
@@ -2936,17 +2992,18 @@
       <c r="I37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2974,17 +3031,18 @@
       <c r="I38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="K38" s="4">
-        <v>3.75</v>
       </c>
       <c r="L38" s="4">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M38" s="4">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
@@ -3012,17 +3070,18 @@
       <c r="I39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="K39" s="4">
-        <v>1.73</v>
       </c>
       <c r="L39" s="4">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M39" s="4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>1</v>
       </c>
@@ -3030,7 +3089,7 @@
         <v>175</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>176</v>
@@ -3050,17 +3109,18 @@
       <c r="I40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>0.26</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>0.52</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>179</v>
       </c>
@@ -3088,17 +3148,18 @@
       <c r="I41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>185</v>
       </c>
@@ -3126,17 +3187,18 @@
       <c r="I42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K42" s="4">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L42" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>189</v>
       </c>
@@ -3164,18 +3226,19 @@
       <c r="I43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>0.26</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <f>0.26*3</f>
         <v>0.78</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>193</v>
       </c>
@@ -3203,17 +3266,18 @@
       <c r="I44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>0.25</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>199</v>
       </c>
@@ -3241,17 +3305,18 @@
       <c r="I45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>203</v>
       </c>
@@ -3279,17 +3344,18 @@
       <c r="I46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0.1</v>
       </c>
       <c r="L46" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M46" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>207</v>
       </c>
@@ -3317,17 +3383,18 @@
       <c r="I47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>0.64</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>1.28</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>211</v>
       </c>
@@ -3338,7 +3405,7 @@
         <v>213</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
@@ -3355,17 +3422,18 @@
       <c r="I48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>0.1</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>216</v>
       </c>
@@ -3385,7 +3453,7 @@
         <v>220</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
@@ -3393,17 +3461,18 @@
       <c r="I49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>0.45</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>222</v>
       </c>
@@ -3431,17 +3500,18 @@
       <c r="I50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>0.1</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>228</v>
       </c>
@@ -3469,17 +3539,18 @@
       <c r="I51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>0.1</v>
       </c>
-      <c r="L51" s="4">
+      <c r="M51" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>234</v>
       </c>
@@ -3507,17 +3578,18 @@
       <c r="I52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="K52" s="4">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L52" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L52" s="4">
+      <c r="M52" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>239</v>
       </c>
@@ -3545,17 +3617,18 @@
       <c r="I53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="K53" s="4">
-        <v>2.12</v>
+      <c r="J53" s="3"/>
+      <c r="K53" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="L53" s="4">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M53" s="4">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>245</v>
       </c>
@@ -3583,17 +3656,20 @@
       <c r="I54" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0.2</v>
       </c>
       <c r="L54" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M54" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>251</v>
       </c>
@@ -3621,17 +3697,18 @@
       <c r="I55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0.77</v>
       </c>
       <c r="L55" s="4">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M55" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>257</v>
       </c>
@@ -3659,17 +3736,18 @@
       <c r="I56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="K56" s="4">
-        <v>1.36</v>
       </c>
       <c r="L56" s="4">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M56" s="4">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>264</v>
       </c>
@@ -3697,17 +3775,18 @@
       <c r="I57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0.1</v>
       </c>
       <c r="L57" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M57" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>271</v>
       </c>
@@ -3735,17 +3814,18 @@
       <c r="I58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="K58" s="4">
-        <v>3.03</v>
       </c>
       <c r="L58" s="4">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M58" s="4">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>277</v>
       </c>
@@ -3764,18 +3844,21 @@
       <c r="F59" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>278</v>
+      <c r="G59" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="4"/>
+      <c r="J59" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="K59" s="3"/>
       <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>282</v>
       </c>
@@ -3786,7 +3869,7 @@
         <v>284</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E60" s="4">
         <v>5</v>
@@ -3803,17 +3886,18 @@
       <c r="I60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="K60" s="4">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="L60" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="L60" s="4">
+      <c r="M60" s="4">
         <v>0.13</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>286</v>
       </c>
@@ -3841,17 +3925,18 @@
       <c r="I61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="K61" s="4">
+      <c r="J61" s="3"/>
+      <c r="K61" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="L61" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L61" s="4">
+      <c r="M61" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>291</v>
       </c>
@@ -3879,17 +3964,18 @@
       <c r="I62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K62" s="4">
+      <c r="L62" s="4">
         <v>0.61</v>
       </c>
-      <c r="L62" s="4">
+      <c r="M62" s="4">
         <v>2.44</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>298</v>
       </c>
@@ -3917,17 +4003,18 @@
       <c r="I63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="K63" s="4">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L63" s="4">
         <v>0.3</v>
       </c>
-      <c r="L63" s="4">
+      <c r="M63" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>303</v>
       </c>
@@ -3947,25 +4034,26 @@
         <v>302</v>
       </c>
       <c r="G64" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="K64" s="4">
-        <v>0.24</v>
       </c>
       <c r="L64" s="4">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M64" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>307</v>
       </c>
@@ -3993,17 +4081,18 @@
       <c r="I65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="K65" s="4">
-        <v>0.52</v>
       </c>
       <c r="L65" s="4">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M65" s="4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>313</v>
       </c>
@@ -4023,7 +4112,7 @@
         <v>317</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>18</v>
@@ -4031,18 +4120,19 @@
       <c r="I66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="K66" s="4">
+      <c r="J66" s="3"/>
+      <c r="K66" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="L66" s="4">
         <v>0.34</v>
       </c>
-      <c r="L66" s="4">
+      <c r="M66" s="4">
         <f>0.34*5</f>
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>318</v>
       </c>
@@ -4067,50 +4157,50 @@
       <c r="H67" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I67" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="I67" s="8"/>
+      <c r="J67" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="K67" s="3"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="H68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="K68" s="4">
+      <c r="L68" s="4">
         <v>1.02</v>
       </c>
-      <c r="L68" s="4">
+      <c r="M68" s="4">
         <v>1.02</v>
       </c>
     </row>

--- a/Project Outputs for ESE516_ExampleLayoutProject_/ESE516_ExampleLayoutProject_.xlsx
+++ b/Project Outputs for ESE516_ExampleLayoutProject_/ESE516_ExampleLayoutProject_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium\project\Dimon_say\ESE516_Starter_PCB\Project Outputs for ESE516_ExampleLayoutProject_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D048E-5E05-4FBB-A5FD-72BA6048688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A23BD-097A-412C-A4BA-01F4BBB198DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="374">
   <si>
     <t>Line #</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Aluminum Electrolytic Capacitor, UD Series, Low Impedance, 100 uF, 25 V, + / - 20%, -55 to 105 degC, Chip Type, 6.3 x 7.7 mm D x L, Pb-Free, Reel</t>
   </si>
   <si>
-    <t>C51</t>
-  </si>
-  <si>
     <t>KEMET</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
   </si>
   <si>
     <t>Buck Step Down Regulator with 2.3 to 6 V Input and 3.3 V Output, -40 to 85 degC, 8-Pin WSON (DSG), Green (RoHS &amp; no Sb/Br)</t>
-  </si>
-  <si>
-    <t>U9</t>
   </si>
   <si>
     <t>296-49331-1-ND</t>
@@ -1187,6 +1181,14 @@
   </si>
   <si>
     <t>Out of board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1645,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1667,31 +1669,31 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B4" s="15">
         <f>SUM(M4:M68)</f>
@@ -1727,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>10</v>
@@ -1739,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1815,7 +1817,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L7" s="4">
         <v>0.26</v>
@@ -2088,7 +2090,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L14" s="4">
         <v>0.45</v>
@@ -2107,17 +2109,17 @@
       <c r="C15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G15" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>18</v>
@@ -2127,7 +2129,7 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L15" s="4">
         <v>0.56999999999999995</v>
@@ -2141,13 +2143,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2156,7 +2158,7 @@
         <v>36</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>18</v>
@@ -2166,7 +2168,7 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="4">
         <v>0.1</v>
@@ -2180,13 +2182,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -2195,7 +2197,7 @@
         <v>36</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>18</v>
@@ -2205,7 +2207,7 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" s="4">
         <v>0.1</v>
@@ -2219,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
@@ -2234,7 +2236,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>18</v>
@@ -2244,7 +2246,7 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L18" s="4">
         <v>0.1</v>
@@ -2258,13 +2260,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="E19" s="12">
         <v>4</v>
@@ -2273,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>18</v>
@@ -2283,7 +2285,7 @@
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L19" s="12">
         <v>1.7000000000000001E-2</v>
@@ -2298,34 +2300,34 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L20" s="4">
         <v>2.88</v>
@@ -2339,13 +2341,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E21" s="4">
         <v>3</v>
@@ -2354,7 +2356,7 @@
         <v>36</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
@@ -2364,7 +2366,7 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L21" s="4">
         <v>1.7000000000000001E-2</v>
@@ -2378,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
@@ -2393,7 +2395,7 @@
         <v>36</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
@@ -2403,7 +2405,7 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L22" s="4">
         <v>1.7000000000000001E-2</v>
@@ -2417,13 +2419,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -2432,7 +2434,7 @@
         <v>36</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
@@ -2442,7 +2444,7 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L23" s="4">
         <v>1.7000000000000001E-2</v>
@@ -2456,10 +2458,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>1</v>
@@ -2468,22 +2470,22 @@
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="L24" s="4">
         <v>5.95</v>
@@ -2497,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>1</v>
@@ -2509,22 +2511,22 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="L25" s="4">
         <v>12.5</v>
@@ -2538,10 +2540,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1</v>
@@ -2550,22 +2552,22 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="L26" s="4">
         <v>16.95</v>
@@ -2579,13 +2581,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -2594,7 +2596,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>18</v>
@@ -2604,7 +2606,7 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L27" s="4">
         <v>0.1</v>
@@ -2618,13 +2620,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E28" s="4">
         <v>2</v>
@@ -2633,7 +2635,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>18</v>
@@ -2643,7 +2645,7 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L28" s="4">
         <v>1.7000000000000001E-2</v>
@@ -2657,32 +2659,32 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L29" s="4">
         <v>2.5</v>
@@ -2696,22 +2698,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
@@ -2721,7 +2723,7 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L30" s="4">
         <v>3.47</v>
@@ -2735,22 +2737,22 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>18</v>
@@ -2760,7 +2762,7 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L31" s="4">
         <v>1.4</v>
@@ -2774,22 +2776,22 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
@@ -2799,7 +2801,7 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L32" s="4">
         <v>1.4</v>
@@ -2813,13 +2815,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="E33" s="4">
         <v>4</v>
@@ -2828,7 +2830,7 @@
         <v>36</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
@@ -2838,7 +2840,7 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L33" s="4">
         <v>1.7000000000000001E-2</v>
@@ -2852,22 +2854,22 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>25</v>
@@ -2877,7 +2879,7 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L34" s="4">
         <v>3.58</v>
@@ -2891,22 +2893,22 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>18</v>
@@ -2916,7 +2918,7 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L35" s="4">
         <v>0.75</v>
@@ -2930,22 +2932,22 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>18</v>
@@ -2955,7 +2957,7 @@
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L36" s="4">
         <v>1.48</v>
@@ -2969,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="E37" s="4">
         <v>4</v>
@@ -2984,7 +2986,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
@@ -2994,7 +2996,7 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L37" s="4">
         <v>1.7000000000000001E-2</v>
@@ -3008,22 +3010,22 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
@@ -3033,7 +3035,7 @@
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L38" s="4">
         <v>3.75</v>
@@ -3047,22 +3049,22 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>173</v>
+      <c r="D39" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>18</v>
@@ -3072,7 +3074,7 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L39" s="4">
         <v>1.73</v>
@@ -3086,13 +3088,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -3101,7 +3103,7 @@
         <v>16</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>25</v>
@@ -3111,7 +3113,7 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L40" s="4">
         <v>0.26</v>
@@ -3122,16 +3124,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -3140,7 +3142,7 @@
         <v>36</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>18</v>
@@ -3150,7 +3152,7 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L41" s="4">
         <v>1.7000000000000001E-2</v>
@@ -3161,16 +3163,16 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="E42" s="4">
         <v>6</v>
@@ -3179,7 +3181,7 @@
         <v>36</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>18</v>
@@ -3189,7 +3191,7 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L42" s="4">
         <v>1.7000000000000001E-2</v>
@@ -3200,16 +3202,16 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E43" s="4">
         <v>3</v>
@@ -3240,16 +3242,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="E44" s="4">
         <v>3</v>
@@ -3258,7 +3260,7 @@
         <v>16</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>18</v>
@@ -3268,7 +3270,7 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L44" s="4">
         <v>0.25</v>
@@ -3279,16 +3281,16 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="E45" s="4">
         <v>4</v>
@@ -3297,7 +3299,7 @@
         <v>36</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>18</v>
@@ -3307,7 +3309,7 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L45" s="4">
         <v>1.7000000000000001E-2</v>
@@ -3318,16 +3320,16 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
@@ -3357,16 +3359,16 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="E47" s="4">
         <v>2</v>
@@ -3396,25 +3398,25 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="D48" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>25</v>
@@ -3424,7 +3426,7 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L48" s="4">
         <v>0.1</v>
@@ -3435,25 +3437,25 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="E49" s="4">
         <v>5</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
@@ -3463,7 +3465,7 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L49" s="4">
         <v>4.4999999999999998E-2</v>
@@ -3474,16 +3476,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -3492,7 +3494,7 @@
         <v>30</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>18</v>
@@ -3502,7 +3504,7 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L50" s="4">
         <v>0.1</v>
@@ -3513,16 +3515,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E51" s="4">
         <v>4</v>
@@ -3531,7 +3533,7 @@
         <v>16</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>18</v>
@@ -3541,7 +3543,7 @@
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L51" s="4">
         <v>0.1</v>
@@ -3552,16 +3554,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
@@ -3570,7 +3572,7 @@
         <v>36</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>18</v>
@@ -3580,7 +3582,7 @@
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L52" s="4">
         <v>1.7000000000000001E-2</v>
@@ -3591,25 +3593,25 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>18</v>
@@ -3619,7 +3621,7 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L53" s="4">
         <v>2.12</v>
@@ -3630,37 +3632,37 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="J54" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="L54" s="2">
         <v>0.2</v>
@@ -3671,25 +3673,25 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="G55" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>25</v>
@@ -3699,7 +3701,7 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L55" s="4">
         <v>0.77</v>
@@ -3710,25 +3712,25 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>18</v>
@@ -3738,7 +3740,7 @@
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L56" s="4">
         <v>1.36</v>
@@ -3749,25 +3751,25 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>18</v>
@@ -3777,7 +3779,7 @@
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L57" s="4">
         <v>0.1</v>
@@ -3788,25 +3790,25 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>18</v>
@@ -3816,7 +3818,7 @@
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L58" s="4">
         <v>3.03</v>
@@ -3827,32 +3829,32 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="G59" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="4"/>
@@ -3860,16 +3862,16 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E60" s="4">
         <v>5</v>
@@ -3878,7 +3880,7 @@
         <v>36</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>18</v>
@@ -3888,7 +3890,7 @@
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L60" s="4">
         <v>1.2999999999999999E-2</v>
@@ -3899,16 +3901,16 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -3917,7 +3919,7 @@
         <v>36</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
@@ -3927,7 +3929,7 @@
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L61" s="4">
         <v>1.7000000000000001E-2</v>
@@ -3938,25 +3940,25 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="E62" s="4">
         <v>4</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>18</v>
@@ -3966,7 +3968,7 @@
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L62" s="4">
         <v>0.61</v>
@@ -3977,25 +3979,25 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="E63" s="4">
         <v>3</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>18</v>
@@ -4005,7 +4007,7 @@
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L63" s="4">
         <v>0.3</v>
@@ -4016,25 +4018,25 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="E64" s="4">
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>18</v>
@@ -4044,7 +4046,7 @@
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L64" s="4">
         <v>0.24</v>
@@ -4055,25 +4057,25 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="G65" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>25</v>
@@ -4083,7 +4085,7 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L65" s="4">
         <v>0.52</v>
@@ -4094,25 +4096,25 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="E66" s="4">
         <v>5</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>18</v>
@@ -4122,7 +4124,7 @@
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L66" s="4">
         <v>0.34</v>
@@ -4134,32 +4136,32 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="4"/>
@@ -4167,25 +4169,25 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>18</v>
@@ -4195,7 +4197,7 @@
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L68" s="4">
         <v>1.02</v>

--- a/Project Outputs for ESE516_ExampleLayoutProject_/ESE516_ExampleLayoutProject_.xlsx
+++ b/Project Outputs for ESE516_ExampleLayoutProject_/ESE516_ExampleLayoutProject_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium\project\Dimon_say\ESE516_Starter_PCB\Project Outputs for ESE516_ExampleLayoutProject_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A23BD-097A-412C-A4BA-01F4BBB198DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAAEC21-862D-4D1B-9102-65675B471838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="364">
   <si>
     <t>Line #</t>
   </si>
@@ -325,36 +325,6 @@
   </si>
   <si>
     <t>RMCF0603FT39R0CT-ND</t>
-  </si>
-  <si>
-    <t>CRGCQ0603F3K3</t>
-  </si>
-  <si>
-    <t>CRGCQ0603 3.3KΩ 1% ±100ppm/°C 75V</t>
-  </si>
-  <si>
-    <t>R45, R46</t>
-  </si>
-  <si>
-    <t>RMCF0603FT3K30</t>
-  </si>
-  <si>
-    <t>RMCF0603FT3K30CT-ND</t>
-  </si>
-  <si>
-    <t>CRGCQ0603F6K8</t>
-  </si>
-  <si>
-    <t>CRGCQ 0603 6K8 1%</t>
-  </si>
-  <si>
-    <t>R43, R44</t>
-  </si>
-  <si>
-    <t>RMCF0603FT6K80</t>
-  </si>
-  <si>
-    <t>RMCF0603FT6K80CT-ND</t>
   </si>
   <si>
     <t>Adafruit Industries LLC</t>
@@ -1161,9 +1131,6 @@
     <t>CKN10502CT-ND</t>
   </si>
   <si>
-    <t>R4, R26, R39, R54, R56</t>
-  </si>
-  <si>
     <t>Notes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1189,6 +1156,10 @@
   </si>
   <si>
     <t>U7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4, R26, R39, R43, R44, R54, R56</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1645,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1669,35 +1640,35 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B4" s="15">
-        <f>SUM(M4:M68)</f>
-        <v>89.29</v>
+        <f>SUM(M4:M66)</f>
+        <v>88.95</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1729,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>10</v>
@@ -1741,7 +1712,7 @@
         <v>12</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1783,8 +1754,8 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <f>SUM(M6:M68)</f>
-        <v>89.29</v>
+        <f>SUM(M6:M66)</f>
+        <v>88.95</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1817,7 +1788,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="8" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L7" s="4">
         <v>0.26</v>
@@ -2090,7 +2061,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="8" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="L14" s="4">
         <v>0.45</v>
@@ -2110,7 +2081,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2119,7 +2090,7 @@
         <v>65</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>18</v>
@@ -2263,7 +2234,7 @@
         <v>82</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>83</v>
@@ -2321,13 +2292,13 @@
         <v>90</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L20" s="4">
         <v>2.88</v>
@@ -2379,78 +2350,82 @@
       <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="L22" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>5.95</v>
       </c>
       <c r="M22" s="4">
-        <v>0.17</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="L23" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>12.5</v>
       </c>
       <c r="M23" s="4">
-        <v>0.17</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -2458,122 +2433,118 @@
         <v>1</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D24" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L24" s="4">
-        <v>5.95</v>
+        <v>16.95</v>
       </c>
       <c r="M24" s="4">
-        <v>5.95</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>1</v>
+      <c r="B25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>371</v>
-      </c>
+      <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L25" s="4">
-        <v>12.5</v>
+        <v>0.1</v>
       </c>
       <c r="M25" s="4">
-        <v>12.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>337</v>
+      <c r="B26" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="E26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>371</v>
-      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>114</v>
+        <v>329</v>
       </c>
       <c r="L26" s="4">
-        <v>16.95</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M26" s="4">
-        <v>16.95</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -2581,61 +2552,61 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="H27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="L27" s="4">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="M27" s="4">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>18</v>
@@ -2645,13 +2616,13 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="L28" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>3.47</v>
       </c>
       <c r="M28" s="4">
-        <v>0.17</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -2659,49 +2630,49 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>126</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="J29" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L29" s="4">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="M29" s="4">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>342</v>
+      <c r="B30" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>343</v>
+        <v>123</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>129</v>
@@ -2710,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>18</v>
@@ -2723,13 +2694,13 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L30" s="4">
-        <v>3.47</v>
+        <v>1.4</v>
       </c>
       <c r="M30" s="4">
-        <v>3.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -2737,22 +2708,22 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="E31" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>18</v>
@@ -2762,13 +2733,13 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="L31" s="4">
-        <v>1.4</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M31" s="4">
-        <v>1.4</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -2776,38 +2747,38 @@
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L32" s="4">
-        <v>1.4</v>
+        <v>3.58</v>
       </c>
       <c r="M32" s="4">
-        <v>1.4</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -2815,22 +2786,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E33" s="4">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
@@ -2840,13 +2811,13 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>344</v>
+        <v>143</v>
       </c>
       <c r="L33" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.75</v>
       </c>
       <c r="M33" s="4">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -2854,38 +2825,38 @@
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L34" s="4">
-        <v>3.58</v>
+        <v>1.48</v>
       </c>
       <c r="M34" s="4">
-        <v>3.58</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -2893,19 +2864,19 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="3" t="s">
         <v>150</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>152</v>
@@ -2921,10 +2892,10 @@
         <v>153</v>
       </c>
       <c r="L35" s="4">
-        <v>0.75</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M35" s="4">
-        <v>0.75</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -2960,10 +2931,10 @@
         <v>159</v>
       </c>
       <c r="L36" s="4">
-        <v>1.48</v>
+        <v>3.75</v>
       </c>
       <c r="M36" s="4">
-        <v>1.48</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -2973,20 +2944,20 @@
       <c r="B37" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="D37" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="E37" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>18</v>
@@ -2996,13 +2967,13 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L37" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>1.73</v>
       </c>
       <c r="M37" s="4">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -3010,61 +2981,61 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L38" s="4">
-        <v>3.75</v>
+        <v>0.26</v>
       </c>
       <c r="M38" s="4">
-        <v>3.75</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>18</v>
@@ -3077,49 +3048,49 @@
         <v>172</v>
       </c>
       <c r="L39" s="4">
-        <v>1.73</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M39" s="4">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E40" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="L40" s="4">
-        <v>0.26</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M40" s="4">
-        <v>0.52</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -3136,52 +3107,53 @@
         <v>180</v>
       </c>
       <c r="E41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="L41" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.26</v>
       </c>
       <c r="M41" s="4">
-        <v>0.17</v>
+        <f>0.26*3</f>
+        <v>0.78</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="E42" s="4">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="4">
-        <v>6</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>18</v>
@@ -3191,13 +3163,13 @@
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="L42" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.25</v>
       </c>
       <c r="M42" s="4">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -3214,30 +3186,29 @@
         <v>190</v>
       </c>
       <c r="E43" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="L43" s="4">
-        <v>0.26</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M43" s="4">
-        <f>0.26*3</f>
-        <v>0.78</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
@@ -3254,13 +3225,13 @@
         <v>194</v>
       </c>
       <c r="E44" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>18</v>
@@ -3270,163 +3241,163 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="L44" s="4">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M44" s="4">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E45" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="L45" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.64</v>
       </c>
       <c r="M45" s="4">
-        <v>0.17</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="D46" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="L46" s="4">
         <v>0.1</v>
       </c>
       <c r="M46" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="4">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E47" s="4">
-        <v>2</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>57</v>
+      <c r="G47" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="L47" s="4">
-        <v>0.64</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M47" s="4">
-        <v>1.28</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>347</v>
+        <v>212</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L48" s="4">
         <v>0.1</v>
@@ -3437,25 +3408,25 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E49" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>348</v>
+        <v>16</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
@@ -3465,36 +3436,36 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L49" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="M49" s="4">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>18</v>
@@ -3504,36 +3475,36 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="L50" s="4">
-        <v>0.1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M50" s="4">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E51" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>18</v>
@@ -3542,195 +3513,195 @@
         <v>19</v>
       </c>
       <c r="J51" s="3"/>
-      <c r="K51" s="3" t="s">
-        <v>231</v>
+      <c r="K51" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="L51" s="4">
-        <v>0.1</v>
+        <v>2.12</v>
       </c>
       <c r="M51" s="4">
-        <v>0.4</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E52" s="4">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="L52" s="4">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="M52" s="4">
-        <v>0.17</v>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J53" s="3"/>
-      <c r="K53" s="8" t="s">
-        <v>350</v>
+      <c r="K53" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="L53" s="4">
-        <v>2.12</v>
+        <v>0.77</v>
       </c>
       <c r="M53" s="4">
-        <v>2.12</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="K54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="L54" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0.2</v>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="M54" s="4">
+        <v>1.36</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L55" s="4">
-        <v>0.77</v>
+        <v>0.1</v>
       </c>
       <c r="M55" s="4">
-        <v>0.77</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>18</v>
@@ -3740,72 +3711,66 @@
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L56" s="4">
-        <v>1.36</v>
+        <v>3.03</v>
       </c>
       <c r="M56" s="4">
-        <v>1.36</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="L57" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0.1</v>
-      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D58" s="3" t="s">
         <v>272</v>
       </c>
+      <c r="D58" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="E58" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>273</v>
@@ -3818,69 +3783,75 @@
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="L58" s="4">
-        <v>3.03</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="M58" s="4">
-        <v>3.03</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="4">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>369</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="K59" s="3"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
+      <c r="I59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M59" s="4">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="E60" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>18</v>
@@ -3890,36 +3861,36 @@
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="L60" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>0.61</v>
       </c>
       <c r="M60" s="4">
-        <v>0.13</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
@@ -3928,37 +3899,37 @@
         <v>19</v>
       </c>
       <c r="J61" s="3"/>
-      <c r="K61" s="8" t="s">
-        <v>353</v>
+      <c r="K61" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="L61" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>0.3</v>
       </c>
       <c r="M61" s="4">
-        <v>0.17</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E62" s="4">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>294</v>
+      <c r="G62" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>18</v>
@@ -3968,52 +3939,52 @@
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="L62" s="4">
-        <v>0.61</v>
+        <v>0.24</v>
       </c>
       <c r="M62" s="4">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E63" s="4">
-        <v>3</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="G63" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="L63" s="4">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="M63" s="4">
-        <v>0.9</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -4030,69 +4001,64 @@
         <v>304</v>
       </c>
       <c r="E64" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G64" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="L64" s="4">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="M64" s="4">
-        <v>0.24</v>
+        <f>0.34*5</f>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="L65" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="M65" s="4">
-        <v>0.52</v>
-      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
@@ -4108,13 +4074,13 @@
         <v>314</v>
       </c>
       <c r="E66" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>315</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>18</v>
@@ -4123,86 +4089,13 @@
         <v>19</v>
       </c>
       <c r="J66" s="3"/>
-      <c r="K66" s="8" t="s">
-        <v>365</v>
+      <c r="K66" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="L66" s="4">
-        <v>0.34</v>
+        <v>1.02</v>
       </c>
       <c r="M66" s="4">
-        <f>0.34*5</f>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="K67" s="3"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="L68" s="4">
-        <v>1.02</v>
-      </c>
-      <c r="M68" s="4">
         <v>1.02</v>
       </c>
     </row>
